--- a/output/transRes.xlsx
+++ b/output/transRes.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="215">
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>../../input/cn</t>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
   <si>
     <t>不要改这一行！！</t>
@@ -28,282 +31,423 @@
     <t>全选</t>
   </si>
   <si>
+    <t>Select all</t>
+  </si>
+  <si>
     <t>close</t>
   </si>
   <si>
     <t>关闭</t>
   </si>
   <si>
+    <t xml:space="preserve"> Close </t>
+  </si>
+  <si>
     <t>confirmPrepayment</t>
   </si>
   <si>
     <t>确认订金</t>
   </si>
   <si>
+    <t>Confirm the deposit</t>
+  </si>
+  <si>
     <t>addCurrent</t>
   </si>
   <si>
     <t>新增当前</t>
   </si>
   <si>
+    <t>Add current</t>
+  </si>
+  <si>
     <t>totalPrice</t>
   </si>
   <si>
     <t>总价格</t>
   </si>
   <si>
+    <t>Total price</t>
+  </si>
+  <si>
     <t>channelType</t>
   </si>
   <si>
     <t>渠道类型</t>
   </si>
   <si>
+    <t>Channel type</t>
+  </si>
+  <si>
     <t>channelArea</t>
   </si>
   <si>
     <t>渠道地区</t>
   </si>
   <si>
+    <t>Channel area</t>
+  </si>
+  <si>
     <t>selected</t>
   </si>
   <si>
     <t>已选择</t>
   </si>
   <si>
+    <t>Selected</t>
+  </si>
+  <si>
     <t>disable</t>
   </si>
   <si>
     <t>禁用</t>
   </si>
   <si>
+    <t>Disable</t>
+  </si>
+  <si>
     <t>enable</t>
   </si>
   <si>
     <t>启用</t>
   </si>
   <si>
+    <t>Enable</t>
+  </si>
+  <si>
     <t>successMsg</t>
   </si>
   <si>
     <t>操作成功!</t>
   </si>
   <si>
+    <t>Operation successful!</t>
+  </si>
+  <si>
     <t>failMsg</t>
   </si>
   <si>
     <t>操作失败!</t>
   </si>
   <si>
+    <t>Operation failed!</t>
+  </si>
+  <si>
     <t>batchImport</t>
   </si>
   <si>
     <t>批量导入</t>
   </si>
   <si>
+    <t>Batch import</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
     <t>国家</t>
   </si>
   <si>
+    <t xml:space="preserve"> Country </t>
+  </si>
+  <si>
     <t>billView</t>
   </si>
   <si>
     <t>账单预览</t>
   </si>
   <si>
+    <t>Bill preview</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
     <t>价格</t>
   </si>
   <si>
+    <t xml:space="preserve"> Price </t>
+  </si>
+  <si>
     <t>reason</t>
   </si>
   <si>
     <t>原因</t>
   </si>
   <si>
+    <t xml:space="preserve"> Reason </t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
     <t>类型</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>passenger</t>
   </si>
   <si>
     <t>乘客</t>
   </si>
   <si>
+    <t xml:space="preserve"> Passenger </t>
+  </si>
+  <si>
     <t>repriceTypes.TICKET</t>
   </si>
   <si>
     <t>票款</t>
   </si>
   <si>
+    <t>Ticket money</t>
+  </si>
+  <si>
     <t>repriceTypes.CHARGE</t>
   </si>
   <si>
     <t>港务费</t>
   </si>
   <si>
+    <t>Port dues</t>
+  </si>
+  <si>
     <t>repriceTypes.PORTTRAVEL</t>
   </si>
   <si>
     <t>岸上游附加费</t>
   </si>
   <si>
+    <t>Upshore surcharge</t>
+  </si>
+  <si>
     <t>repriceTypes.CUSTOM</t>
   </si>
   <si>
     <t>更名费</t>
   </si>
   <si>
+    <t>Rename fee</t>
+  </si>
+  <si>
     <t>cnyPersonUnit</t>
   </si>
   <si>
     <t>{0}元/人</t>
   </si>
   <si>
+    <t>{ 0 } yuan/person</t>
+  </si>
+  <si>
     <t>shoreEx</t>
   </si>
   <si>
     <t>岸上游</t>
   </si>
   <si>
+    <t>Upshore</t>
+  </si>
+  <si>
     <t>delete</t>
   </si>
   <si>
     <t>删除</t>
   </si>
   <si>
+    <t xml:space="preserve"> Delete </t>
+  </si>
+  <si>
     <t>deleteConfirm</t>
   </si>
   <si>
     <t>确认删除么?</t>
   </si>
   <si>
+    <t>Are you sure to delete it?</t>
+  </si>
+  <si>
     <t>add</t>
   </si>
   <si>
     <t>添加</t>
   </si>
   <si>
+    <t xml:space="preserve"> Add to </t>
+  </si>
+  <si>
     <t>action</t>
   </si>
   <si>
     <t>操作</t>
   </si>
   <si>
+    <t xml:space="preserve"> Operation </t>
+  </si>
+  <si>
     <t>priceComparison</t>
   </si>
   <si>
     <t>价格对比</t>
   </si>
   <si>
+    <t>Price comparison</t>
+  </si>
+  <si>
     <t>addBed</t>
   </si>
   <si>
     <t>加床</t>
   </si>
   <si>
+    <t>Extra bed</t>
+  </si>
+  <si>
     <t>passengerInfo</t>
   </si>
   <si>
     <t>乘客信息</t>
   </si>
   <si>
+    <t>Passenger information</t>
+  </si>
+  <si>
     <t>totalPerson</t>
   </si>
   <si>
     <t>总人数</t>
   </si>
   <si>
+    <t>Total number of people</t>
+  </si>
+  <si>
     <t>voyageCode</t>
   </si>
   <si>
     <t>航次编号</t>
   </si>
   <si>
+    <t>Voyage number</t>
+  </si>
+  <si>
     <t>orderId</t>
   </si>
   <si>
     <t>订单编号</t>
   </si>
   <si>
+    <t>Order number</t>
+  </si>
+  <si>
     <t>productName</t>
   </si>
   <si>
     <t>产品名称</t>
   </si>
   <si>
+    <t>Product name</t>
+  </si>
+  <si>
     <t>orderFrom</t>
   </si>
   <si>
     <t>订单来源</t>
   </si>
   <si>
+    <t>Source of the order</t>
+  </si>
+  <si>
     <t>orderStatus</t>
   </si>
   <si>
     <t>订单状态</t>
   </si>
   <si>
+    <t>Order status</t>
+  </si>
+  <si>
     <t>createdAt</t>
   </si>
   <si>
     <t>创建时间</t>
   </si>
   <si>
+    <t>Creation time</t>
+  </si>
+  <si>
     <t>contact</t>
   </si>
   <si>
     <t>联系人信息</t>
   </si>
   <si>
+    <t>Contact information</t>
+  </si>
+  <si>
     <t>orderType</t>
   </si>
   <si>
     <t>订单类型</t>
   </si>
   <si>
+    <t>Order type</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
     <t>备注说明</t>
   </si>
   <si>
+    <t>Note description</t>
+  </si>
+  <si>
     <t>cutCabin</t>
   </si>
   <si>
     <t>团队方式</t>
   </si>
   <si>
+    <t>Team approach</t>
+  </si>
+  <si>
     <t>cutCabinSoft</t>
   </si>
   <si>
     <t>软切</t>
   </si>
   <si>
+    <t>Soft cut</t>
+  </si>
+  <si>
     <t>cutCabinHard</t>
   </si>
   <si>
     <t>硬切</t>
   </si>
   <si>
+    <t>Hard cut</t>
+  </si>
+  <si>
     <t>charterShip</t>
   </si>
   <si>
     <t>包船</t>
   </si>
   <si>
+    <t>Charter a ship</t>
+  </si>
+  <si>
     <t>commission</t>
   </si>
   <si>
     <t>佣金</t>
   </si>
   <si>
+    <t xml:space="preserve"> Commission </t>
+  </si>
+  <si>
     <t>harbourDues</t>
   </si>
   <si>
@@ -313,136 +457,205 @@
     <t>取消费</t>
   </si>
   <si>
+    <t>Cancellation fee</t>
+  </si>
+  <si>
     <t>creater</t>
   </si>
   <si>
     <t>开团人</t>
   </si>
   <si>
+    <t>The person who started the group</t>
+  </si>
+  <si>
     <t>groupType</t>
   </si>
   <si>
     <t>团队类型</t>
   </si>
   <si>
+    <t>Team type</t>
+  </si>
+  <si>
     <t>groupOrder</t>
   </si>
   <si>
     <t>团队订单</t>
   </si>
   <si>
+    <t>Team order</t>
+  </si>
+  <si>
     <t>fitOrder</t>
   </si>
   <si>
     <t>FIT订单</t>
   </si>
   <si>
+    <t>FIT order</t>
+  </si>
+  <si>
     <t>edit</t>
   </si>
   <si>
     <t>编辑</t>
   </si>
   <si>
+    <t xml:space="preserve"> Editor </t>
+  </si>
+  <si>
     <t>confirm</t>
   </si>
   <si>
     <t>确定</t>
   </si>
   <si>
+    <t xml:space="preserve"> Confirm </t>
+  </si>
+  <si>
     <t>travelAgencyTotal</t>
   </si>
   <si>
     <t>旅行社总价</t>
   </si>
   <si>
+    <t>Total travel agency price</t>
+  </si>
+  <si>
     <t>groupDepositPayment</t>
   </si>
   <si>
     <t>订金付款通知书</t>
   </si>
   <si>
+    <t>Notice of deposit payment</t>
+  </si>
+  <si>
     <t>fitDepositPayment</t>
   </si>
   <si>
     <t>FIT付款通知书</t>
   </si>
   <si>
+    <t>FIT Payment Advice</t>
+  </si>
+  <si>
     <t>download</t>
   </si>
   <si>
     <t>下载</t>
   </si>
   <si>
+    <t xml:space="preserve"> Download </t>
+  </si>
+  <si>
     <t>downloadSuccessMsg</t>
   </si>
   <si>
     <t>下载成功</t>
   </si>
   <si>
+    <t>Download succeeded</t>
+  </si>
+  <si>
     <t>reprice</t>
   </si>
   <si>
     <t>价格调整</t>
   </si>
   <si>
+    <t>Price adjustment</t>
+  </si>
+  <si>
     <t>pushBill</t>
   </si>
   <si>
     <t>提交账单</t>
   </si>
   <si>
+    <t>Submit the bill</t>
+  </si>
+  <si>
     <t>doubleCheckText</t>
   </si>
   <si>
     <t>确认执行?</t>
   </si>
   <si>
+    <t>Confirm execution?</t>
+  </si>
+  <si>
     <t>unsold</t>
   </si>
   <si>
     <t>未售</t>
   </si>
   <si>
+    <t>Unsold</t>
+  </si>
+  <si>
     <t>rooms</t>
   </si>
   <si>
     <t>{0}间</t>
   </si>
   <si>
+    <t>{ 0 } Room</t>
+  </si>
+  <si>
     <t>cancel</t>
   </si>
   <si>
     <t>取消</t>
   </si>
   <si>
+    <t xml:space="preserve"> Cancel </t>
+  </si>
+  <si>
     <t>spend</t>
   </si>
   <si>
     <t>满</t>
   </si>
   <si>
+    <t>Full</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
     <t>减</t>
   </si>
   <si>
+    <t>Minus</t>
+  </si>
+  <si>
     <t>confirmZeroDeposit</t>
   </si>
   <si>
     <t>确认0元订金</t>
   </si>
   <si>
+    <t>Confirm the deposit of 0 yuan</t>
+  </si>
+  <si>
     <t>confirmSettle</t>
   </si>
   <si>
     <t>确认结算</t>
   </si>
   <si>
+    <t>Confirm the settlement</t>
+  </si>
+  <si>
     <t>addPassenger</t>
   </si>
   <si>
     <t>添加乘客</t>
+  </si>
+  <si>
+    <t>Add a passenger</t>
   </si>
 </sst>
 </file>
@@ -825,13 +1038,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:D72"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="35" customWidth="1"/>
+    <col min="1" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -841,573 +1054,789 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="C60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="C64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="C71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>213</v>
+      </c>
+      <c r="C72" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/output/transRes.xlsx
+++ b/output/transRes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="357">
   <si>
     <t>key</t>
   </si>
@@ -22,6 +22,12 @@
     <t>en</t>
   </si>
   <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
     <t>不要改这一行！！</t>
   </si>
   <si>
@@ -34,6 +40,12 @@
     <t>Select all</t>
   </si>
   <si>
+    <t xml:space="preserve">Выбрать все </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tout sélectionner </t>
+  </si>
+  <si>
     <t>close</t>
   </si>
   <si>
@@ -43,6 +55,12 @@
     <t xml:space="preserve"> Close </t>
   </si>
   <si>
+    <t xml:space="preserve">Закрыть </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fermeture </t>
+  </si>
+  <si>
     <t>confirmPrepayment</t>
   </si>
   <si>
@@ -52,6 +70,12 @@
     <t>Confirm the deposit</t>
   </si>
   <si>
+    <t xml:space="preserve">Подтвердить депозит </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dépôt de confirmation </t>
+  </si>
+  <si>
     <t>addCurrent</t>
   </si>
   <si>
@@ -61,6 +85,12 @@
     <t>Add current</t>
   </si>
   <si>
+    <t xml:space="preserve">Добавить текущий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout du courant </t>
+  </si>
+  <si>
     <t>totalPrice</t>
   </si>
   <si>
@@ -70,6 +100,12 @@
     <t>Total price</t>
   </si>
   <si>
+    <t xml:space="preserve">Общая цена </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix total </t>
+  </si>
+  <si>
     <t>channelType</t>
   </si>
   <si>
@@ -79,6 +115,12 @@
     <t>Channel type</t>
   </si>
   <si>
+    <t xml:space="preserve">Тип канала </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de canal </t>
+  </si>
+  <si>
     <t>channelArea</t>
   </si>
   <si>
@@ -88,6 +130,12 @@
     <t>Channel area</t>
   </si>
   <si>
+    <t xml:space="preserve">Район канала </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Région du canal </t>
+  </si>
+  <si>
     <t>selected</t>
   </si>
   <si>
@@ -97,6 +145,12 @@
     <t>Selected</t>
   </si>
   <si>
+    <t xml:space="preserve">Выбрано </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisi </t>
+  </si>
+  <si>
     <t>disable</t>
   </si>
   <si>
@@ -106,6 +160,12 @@
     <t>Disable</t>
   </si>
   <si>
+    <t xml:space="preserve">Отключить </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Désactivé </t>
+  </si>
+  <si>
     <t>enable</t>
   </si>
   <si>
@@ -115,6 +175,12 @@
     <t>Enable</t>
   </si>
   <si>
+    <t xml:space="preserve">Включить </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activer </t>
+  </si>
+  <si>
     <t>successMsg</t>
   </si>
   <si>
@@ -124,6 +190,12 @@
     <t>Operation successful!</t>
   </si>
   <si>
+    <t xml:space="preserve">Операция прошла успешно! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opération réussie! </t>
+  </si>
+  <si>
     <t>failMsg</t>
   </si>
   <si>
@@ -133,6 +205,12 @@
     <t>Operation failed!</t>
   </si>
   <si>
+    <t xml:space="preserve">Операция не удалась! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'opération a échoué! </t>
+  </si>
+  <si>
     <t>batchImport</t>
   </si>
   <si>
@@ -142,6 +220,12 @@
     <t>Batch import</t>
   </si>
   <si>
+    <t xml:space="preserve">Пакетный импорт </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importation en vrac </t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -151,6 +235,12 @@
     <t xml:space="preserve"> Country </t>
   </si>
   <si>
+    <t xml:space="preserve">Страны </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pays </t>
+  </si>
+  <si>
     <t>billView</t>
   </si>
   <si>
@@ -160,6 +250,12 @@
     <t>Bill preview</t>
   </si>
   <si>
+    <t xml:space="preserve">Предварительный просмотр счета </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aperçu de la facture </t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -169,6 +265,12 @@
     <t xml:space="preserve"> Price </t>
   </si>
   <si>
+    <t xml:space="preserve">Цена </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix </t>
+  </si>
+  <si>
     <t>reason</t>
   </si>
   <si>
@@ -178,6 +280,12 @@
     <t xml:space="preserve"> Reason </t>
   </si>
   <si>
+    <t xml:space="preserve">Причины </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La raison. </t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -187,6 +295,12 @@
     <t>Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Тип </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type: </t>
+  </si>
+  <si>
     <t>passenger</t>
   </si>
   <si>
@@ -196,6 +310,12 @@
     <t xml:space="preserve"> Passenger </t>
   </si>
   <si>
+    <t xml:space="preserve">Пассажиры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passagers </t>
+  </si>
+  <si>
     <t>repriceTypes.TICKET</t>
   </si>
   <si>
@@ -205,6 +325,12 @@
     <t>Ticket money</t>
   </si>
   <si>
+    <t xml:space="preserve">Стоимость билетов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billets </t>
+  </si>
+  <si>
     <t>repriceTypes.CHARGE</t>
   </si>
   <si>
@@ -214,6 +340,12 @@
     <t>Port dues</t>
   </si>
   <si>
+    <t xml:space="preserve">Портовые сборы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frais portuaires </t>
+  </si>
+  <si>
     <t>repriceTypes.PORTTRAVEL</t>
   </si>
   <si>
@@ -223,6 +355,12 @@
     <t>Upshore surcharge</t>
   </si>
   <si>
+    <t xml:space="preserve">Доплата за верховья берега </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplément en amont du rivage </t>
+  </si>
+  <si>
     <t>repriceTypes.CUSTOM</t>
   </si>
   <si>
@@ -232,6 +370,12 @@
     <t>Rename fee</t>
   </si>
   <si>
+    <t xml:space="preserve">Плата за переименование </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frais de changement de nom </t>
+  </si>
+  <si>
     <t>cnyPersonUnit</t>
   </si>
   <si>
@@ -241,6 +385,12 @@
     <t>{ 0 } yuan/person</t>
   </si>
   <si>
+    <t xml:space="preserve">{ 0 } юаней/чел. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ 0 } yuan/personne </t>
+  </si>
+  <si>
     <t>shoreEx</t>
   </si>
   <si>
@@ -250,6 +400,12 @@
     <t>Upshore</t>
   </si>
   <si>
+    <t xml:space="preserve">Выше берега </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En amont du rivage </t>
+  </si>
+  <si>
     <t>delete</t>
   </si>
   <si>
@@ -259,6 +415,12 @@
     <t xml:space="preserve"> Delete </t>
   </si>
   <si>
+    <t xml:space="preserve">Удалить </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer </t>
+  </si>
+  <si>
     <t>deleteConfirm</t>
   </si>
   <si>
@@ -268,6 +430,12 @@
     <t>Are you sure to delete it?</t>
   </si>
   <si>
+    <t xml:space="preserve">Подтверждаете удаление? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmez la suppression? </t>
+  </si>
+  <si>
     <t>add</t>
   </si>
   <si>
@@ -277,6 +445,12 @@
     <t xml:space="preserve"> Add to </t>
   </si>
   <si>
+    <t xml:space="preserve">Добавить </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter </t>
+  </si>
+  <si>
     <t>action</t>
   </si>
   <si>
@@ -286,6 +460,12 @@
     <t xml:space="preserve"> Operation </t>
   </si>
   <si>
+    <t xml:space="preserve">Операция </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonctionnement </t>
+  </si>
+  <si>
     <t>priceComparison</t>
   </si>
   <si>
@@ -295,6 +475,12 @@
     <t>Price comparison</t>
   </si>
   <si>
+    <t xml:space="preserve">Сравнение цен </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparaison des prix </t>
+  </si>
+  <si>
     <t>addBed</t>
   </si>
   <si>
@@ -304,6 +490,12 @@
     <t>Extra bed</t>
   </si>
   <si>
+    <t xml:space="preserve">Дополнительная кровать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lit supplémentaire </t>
+  </si>
+  <si>
     <t>passengerInfo</t>
   </si>
   <si>
@@ -313,6 +505,12 @@
     <t>Passenger information</t>
   </si>
   <si>
+    <t xml:space="preserve">Информация о пассажирах </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informations sur les passagers </t>
+  </si>
+  <si>
     <t>totalPerson</t>
   </si>
   <si>
@@ -322,6 +520,12 @@
     <t>Total number of people</t>
   </si>
   <si>
+    <t xml:space="preserve">Общая численность </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectif total </t>
+  </si>
+  <si>
     <t>voyageCode</t>
   </si>
   <si>
@@ -331,6 +535,12 @@
     <t>Voyage number</t>
   </si>
   <si>
+    <t xml:space="preserve">Номер рейса </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numéro de voyage </t>
+  </si>
+  <si>
     <t>orderId</t>
   </si>
   <si>
@@ -340,6 +550,12 @@
     <t>Order number</t>
   </si>
   <si>
+    <t xml:space="preserve">Номер заказа </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numéro de commande </t>
+  </si>
+  <si>
     <t>productName</t>
   </si>
   <si>
@@ -349,6 +565,12 @@
     <t>Product name</t>
   </si>
   <si>
+    <t xml:space="preserve">Наименование продукции </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom du produit </t>
+  </si>
+  <si>
     <t>orderFrom</t>
   </si>
   <si>
@@ -358,6 +580,12 @@
     <t>Source of the order</t>
   </si>
   <si>
+    <t xml:space="preserve">Источник заказа </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origine des commandes </t>
+  </si>
+  <si>
     <t>orderStatus</t>
   </si>
   <si>
@@ -367,6 +595,12 @@
     <t>Order status</t>
   </si>
   <si>
+    <t xml:space="preserve">Статус заказа </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut de la commande </t>
+  </si>
+  <si>
     <t>createdAt</t>
   </si>
   <si>
@@ -376,6 +610,12 @@
     <t>Creation time</t>
   </si>
   <si>
+    <t xml:space="preserve">Время создания </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps de création </t>
+  </si>
+  <si>
     <t>contact</t>
   </si>
   <si>
@@ -385,6 +625,12 @@
     <t>Contact information</t>
   </si>
   <si>
+    <t xml:space="preserve">Контактная информация </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renseignements sur les contacts </t>
+  </si>
+  <si>
     <t>orderType</t>
   </si>
   <si>
@@ -394,6 +640,12 @@
     <t>Order type</t>
   </si>
   <si>
+    <t xml:space="preserve">Тип заказа </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de commande </t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -403,6 +655,12 @@
     <t>Note description</t>
   </si>
   <si>
+    <t xml:space="preserve">Примечание </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes explicatives </t>
+  </si>
+  <si>
     <t>cutCabin</t>
   </si>
   <si>
@@ -412,6 +670,12 @@
     <t>Team approach</t>
   </si>
   <si>
+    <t xml:space="preserve">Командный подход </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La manière d'équipe </t>
+  </si>
+  <si>
     <t>cutCabinSoft</t>
   </si>
   <si>
@@ -421,6 +685,12 @@
     <t>Soft cut</t>
   </si>
   <si>
+    <t xml:space="preserve">Мягкая резка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe douce </t>
+  </si>
+  <si>
     <t>cutCabinHard</t>
   </si>
   <si>
@@ -430,6 +700,12 @@
     <t>Hard cut</t>
   </si>
   <si>
+    <t xml:space="preserve">Жесткая резка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe dure </t>
+  </si>
+  <si>
     <t>charterShip</t>
   </si>
   <si>
@@ -439,6 +715,12 @@
     <t>Charter a ship</t>
   </si>
   <si>
+    <t xml:space="preserve">Зафрахтовать судно </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bateaux affrétés </t>
+  </si>
+  <si>
     <t>commission</t>
   </si>
   <si>
@@ -448,6 +730,12 @@
     <t xml:space="preserve"> Commission </t>
   </si>
   <si>
+    <t xml:space="preserve">Комиссия </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commissions </t>
+  </si>
+  <si>
     <t>harbourDues</t>
   </si>
   <si>
@@ -460,13 +748,25 @@
     <t>Cancellation fee</t>
   </si>
   <si>
+    <t xml:space="preserve">Взять потребление </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frais d'annulation </t>
+  </si>
+  <si>
     <t>creater</t>
   </si>
   <si>
     <t>开团人</t>
   </si>
   <si>
-    <t>The person who started the group</t>
+    <t>The person who opened the group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыть полк </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouvreur de groupe </t>
   </si>
   <si>
     <t>groupType</t>
@@ -478,6 +778,12 @@
     <t>Team type</t>
   </si>
   <si>
+    <t xml:space="preserve">Тип команды </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type d'équipe </t>
+  </si>
+  <si>
     <t>groupOrder</t>
   </si>
   <si>
@@ -487,6 +793,12 @@
     <t>Team order</t>
   </si>
   <si>
+    <t xml:space="preserve">Командный заказ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commandes d'équipe </t>
+  </si>
+  <si>
     <t>fitOrder</t>
   </si>
   <si>
@@ -496,6 +808,12 @@
     <t>FIT order</t>
   </si>
   <si>
+    <t xml:space="preserve">Заказ FIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commande FIT </t>
+  </si>
+  <si>
     <t>edit</t>
   </si>
   <si>
@@ -505,6 +823,12 @@
     <t xml:space="preserve"> Editor </t>
   </si>
   <si>
+    <t xml:space="preserve">Редактировать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Éditeur </t>
+  </si>
+  <si>
     <t>confirm</t>
   </si>
   <si>
@@ -514,6 +838,12 @@
     <t xml:space="preserve"> Confirm </t>
   </si>
   <si>
+    <t xml:space="preserve">Определить </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien sûr. </t>
+  </si>
+  <si>
     <t>travelAgencyTotal</t>
   </si>
   <si>
@@ -523,6 +853,12 @@
     <t>Total travel agency price</t>
   </si>
   <si>
+    <t xml:space="preserve">Общая стоимость туроператора </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix total des agences de voyage </t>
+  </si>
+  <si>
     <t>groupDepositPayment</t>
   </si>
   <si>
@@ -532,6 +868,12 @@
     <t>Notice of deposit payment</t>
   </si>
   <si>
+    <t xml:space="preserve">Уведомление об оплате авансового платежа </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avis de paiement d'acompte </t>
+  </si>
+  <si>
     <t>fitDepositPayment</t>
   </si>
   <si>
@@ -541,6 +883,12 @@
     <t>FIT Payment Advice</t>
   </si>
   <si>
+    <t xml:space="preserve">Уведомление об оплате FIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avis de paiement FIT </t>
+  </si>
+  <si>
     <t>download</t>
   </si>
   <si>
@@ -550,6 +898,12 @@
     <t xml:space="preserve"> Download </t>
   </si>
   <si>
+    <t xml:space="preserve">Скачать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télécharger </t>
+  </si>
+  <si>
     <t>downloadSuccessMsg</t>
   </si>
   <si>
@@ -559,6 +913,12 @@
     <t>Download succeeded</t>
   </si>
   <si>
+    <t xml:space="preserve">Успешная загрузка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Téléchargement réussi </t>
+  </si>
+  <si>
     <t>reprice</t>
   </si>
   <si>
@@ -568,6 +928,12 @@
     <t>Price adjustment</t>
   </si>
   <si>
+    <t xml:space="preserve">Корректировка цен </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustement des prix </t>
+  </si>
+  <si>
     <t>pushBill</t>
   </si>
   <si>
@@ -577,6 +943,12 @@
     <t>Submit the bill</t>
   </si>
   <si>
+    <t xml:space="preserve">Представление счета </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Présentation de la facture </t>
+  </si>
+  <si>
     <t>doubleCheckText</t>
   </si>
   <si>
@@ -586,6 +958,12 @@
     <t>Confirm execution?</t>
   </si>
   <si>
+    <t xml:space="preserve">Подтвердить исполнение? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exécution confirmée? </t>
+  </si>
+  <si>
     <t>unsold</t>
   </si>
   <si>
@@ -595,6 +973,12 @@
     <t>Unsold</t>
   </si>
   <si>
+    <t xml:space="preserve">Не продан </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non vendu </t>
+  </si>
+  <si>
     <t>rooms</t>
   </si>
   <si>
@@ -604,6 +988,12 @@
     <t>{ 0 } Room</t>
   </si>
   <si>
+    <t xml:space="preserve">Между { 0 } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre { 0 } </t>
+  </si>
+  <si>
     <t>cancel</t>
   </si>
   <si>
@@ -613,6 +1003,12 @@
     <t xml:space="preserve"> Cancel </t>
   </si>
   <si>
+    <t xml:space="preserve">Отменить </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annuler </t>
+  </si>
+  <si>
     <t>spend</t>
   </si>
   <si>
@@ -622,6 +1018,12 @@
     <t>Full</t>
   </si>
   <si>
+    <t xml:space="preserve">Полный </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plein </t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
@@ -631,6 +1033,12 @@
     <t>Minus</t>
   </si>
   <si>
+    <t xml:space="preserve">Минус </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moins </t>
+  </si>
+  <si>
     <t>confirmZeroDeposit</t>
   </si>
   <si>
@@ -640,6 +1048,12 @@
     <t>Confirm the deposit of 0 yuan</t>
   </si>
   <si>
+    <t xml:space="preserve">Подтвердить депозит в размере 0 юаней </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dépôt de 0 $ confirmé </t>
+  </si>
+  <si>
     <t>confirmSettle</t>
   </si>
   <si>
@@ -649,6 +1063,12 @@
     <t>Confirm the settlement</t>
   </si>
   <si>
+    <t xml:space="preserve">Подтверждение расчетов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation du règlement </t>
+  </si>
+  <si>
     <t>addPassenger</t>
   </si>
   <si>
@@ -656,6 +1076,12 @@
   </si>
   <si>
     <t>Add a passenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавить пассажира </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter un passager </t>
   </si>
 </sst>
 </file>
@@ -1038,13 +1464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:F72"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="35" customWidth="1"/>
+    <col min="1" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1057,786 +1483,1218 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" t="s">
         <v>107</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C49" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D49" t="s">
         <v>109</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E49" t="s">
         <v>110</v>
       </c>
-      <c r="C37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="D50" t="s">
+        <v>245</v>
+      </c>
+      <c r="E50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="D51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="D54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>272</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="D57" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="D58" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="D59" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="D60" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="D61" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="D62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="D63" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="D64" t="s">
+        <v>315</v>
+      </c>
+      <c r="E64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="D65" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="D66" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="D67" t="s">
+        <v>330</v>
+      </c>
+      <c r="E67" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>333</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="D68" t="s">
+        <v>335</v>
+      </c>
+      <c r="E68" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="D69" t="s">
+        <v>340</v>
+      </c>
+      <c r="E69" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>343</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="D70" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="D71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>354</v>
+      </c>
+      <c r="D72" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
